--- a/ToDos.xlsx
+++ b/ToDos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>Portia Workflow ToDos</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>System replaces all : with window.globalVariables, even in string</t>
+  </si>
+  <si>
+    <t>Add a new Activity to run sub workflows</t>
+  </si>
+  <si>
+    <t>Add Execute sub workflow Activity</t>
   </si>
 </sst>
 </file>
@@ -176,13 +182,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -498,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -514,28 +520,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -683,6 +689,23 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
         <v>5</v>
       </c>
     </row>
